--- a/data/life_2019.xlsx
+++ b/data/life_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/life_2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB0E1A-3CFD-4D4A-9C3B-102202A2C039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703F886-8362-9942-ABB3-8D4E628763E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6320" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="損益表" sheetId="6" r:id="rId1"/>
@@ -28,21 +28,9 @@
     <t>　簽單保費收入</t>
   </si>
   <si>
-    <t>　再保費收入</t>
-  </si>
-  <si>
     <t>　減：再保費支出</t>
   </si>
   <si>
-    <t>　再保佣金收入</t>
-  </si>
-  <si>
-    <t>　手續費收入</t>
-  </si>
-  <si>
-    <t>　淨投資損益</t>
-  </si>
-  <si>
     <t xml:space="preserve">  承保費用支出</t>
   </si>
   <si>
@@ -56,12 +44,6 @@
   </si>
   <si>
     <t>營業費用</t>
-  </si>
-  <si>
-    <t>營業外收入費用</t>
-  </si>
-  <si>
-    <t>繼續營業單位稅前純益（損益）</t>
   </si>
   <si>
     <t>營業利益</t>
@@ -156,6 +138,30 @@
   </si>
   <si>
     <t>安達人壽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>　手續費收入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>　再保佣金收入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>　再保費收入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>　淨投資損益</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續營業單位稅前純益（損益）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業外收入費用</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -877,9 +883,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:Y315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17:XFD27"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -904,77 +910,77 @@
     <row r="1" spans="1:25" s="39" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="36"/>
       <c r="B1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="J1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="N1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="O1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="P1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="Q1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="R1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="S1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="T1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="U1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="V1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="W1" s="38" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="38" t="s">
-        <v>36</v>
       </c>
       <c r="X1" s="38"/>
       <c r="Y1" s="38"/>
     </row>
     <row r="2" spans="1:25" s="35" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="33">
         <v>816</v>
@@ -1047,7 +1053,7 @@
     </row>
     <row r="3" spans="1:25" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="15">
         <v>1554741</v>
@@ -1120,7 +1126,7 @@
     </row>
     <row r="4" spans="1:25" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="15">
         <v>226044</v>
@@ -1193,7 +1199,7 @@
     </row>
     <row r="5" spans="1:25" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="15">
         <v>0</v>
@@ -1266,7 +1272,7 @@
     </row>
     <row r="6" spans="1:25" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="15">
         <v>938487</v>
@@ -1412,80 +1418,80 @@
     </row>
     <row r="8" spans="1:25" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B8" s="16">
-        <v>0</v>
+        <v>100927</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1655865</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>1166009</v>
       </c>
       <c r="E8" s="4">
-        <v>125595</v>
+        <v>8450463</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>1107936</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>2772963</v>
       </c>
       <c r="H8" s="4">
-        <v>-4</v>
+        <v>511746</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>2870022</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>1451993</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>4522</v>
       </c>
       <c r="L8" s="4">
-        <v>4475</v>
+        <v>7850</v>
       </c>
       <c r="M8" s="4">
-        <v>0</v>
+        <v>6628623</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
+        <v>5435</v>
       </c>
       <c r="O8" s="4">
-        <v>0</v>
+        <v>271766</v>
       </c>
       <c r="P8" s="4">
-        <v>0</v>
+        <v>1038419</v>
       </c>
       <c r="Q8" s="4">
-        <v>601161</v>
+        <v>443341</v>
       </c>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>246580</v>
       </c>
       <c r="S8" s="4">
-        <v>0</v>
+        <v>22019</v>
       </c>
       <c r="T8" s="4">
-        <v>0</v>
+        <v>190549</v>
       </c>
       <c r="U8" s="4">
-        <v>0</v>
+        <v>3291</v>
       </c>
       <c r="V8" s="4">
-        <v>0</v>
+        <v>6152979</v>
       </c>
       <c r="W8" s="4">
-        <v>0</v>
+        <v>2295989</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="15">
         <v>135984</v>
@@ -1558,7 +1564,7 @@
     </row>
     <row r="10" spans="1:25" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B10" s="16">
         <v>35113</v>
@@ -1631,80 +1637,80 @@
     </row>
     <row r="11" spans="1:25" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B11" s="16">
-        <v>100927</v>
+        <v>0</v>
       </c>
       <c r="C11" s="4">
-        <v>1655865</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>1166009</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>8450463</v>
+        <v>125595</v>
       </c>
       <c r="F11" s="4">
-        <v>1107936</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>2772963</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>511746</v>
+        <v>-4</v>
       </c>
       <c r="I11" s="4">
-        <v>2870022</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>1451993</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>4522</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>7850</v>
+        <v>4475</v>
       </c>
       <c r="M11" s="4">
-        <v>6628623</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>271766</v>
+        <v>0</v>
       </c>
       <c r="P11" s="4">
-        <v>1038419</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="4">
-        <v>443341</v>
+        <v>601161</v>
       </c>
       <c r="R11" s="4">
-        <v>246580</v>
+        <v>0</v>
       </c>
       <c r="S11" s="4">
-        <v>22019</v>
+        <v>0</v>
       </c>
       <c r="T11" s="4">
-        <v>190549</v>
+        <v>0</v>
       </c>
       <c r="U11" s="4">
-        <v>3291</v>
+        <v>0</v>
       </c>
       <c r="V11" s="4">
-        <v>6152979</v>
+        <v>0</v>
       </c>
       <c r="W11" s="4">
-        <v>2295989</v>
+        <v>0</v>
       </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:25" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B12" s="17">
         <v>9870835</v>
@@ -1777,7 +1783,7 @@
     </row>
     <row r="13" spans="1:25" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B13" s="18">
         <f t="shared" ref="B13:W13" si="0">B16-B12</f>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="14" spans="1:25" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B14" s="19">
         <v>6505</v>
@@ -1945,7 +1951,7 @@
     </row>
     <row r="15" spans="1:25" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B15" s="17">
         <v>-2552629</v>
@@ -2018,7 +2024,7 @@
     </row>
     <row r="16" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16" s="20">
         <f>B15-B14</f>
